--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ucn2-Crhr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ucn2-Crhr2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2125036666666666</v>
+        <v>0.4149273333333334</v>
       </c>
       <c r="H2">
-        <v>0.6375109999999999</v>
+        <v>1.244782</v>
       </c>
       <c r="I2">
-        <v>0.1064749515943994</v>
+        <v>0.1353844755004719</v>
       </c>
       <c r="J2">
-        <v>0.1064749515943994</v>
+        <v>0.1353844755004719</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7693313333333333</v>
+        <v>0.4655266666666667</v>
       </c>
       <c r="N2">
-        <v>2.307994</v>
+        <v>1.39658</v>
       </c>
       <c r="O2">
-        <v>0.2551791101080821</v>
+        <v>0.2411272749309853</v>
       </c>
       <c r="P2">
-        <v>0.2551791101080821</v>
+        <v>0.2411272749309853</v>
       </c>
       <c r="Q2">
-        <v>0.1634857292148889</v>
+        <v>0.1931597383955556</v>
       </c>
       <c r="R2">
-        <v>1.471371562934</v>
+        <v>1.73843764556</v>
       </c>
       <c r="S2">
-        <v>0.02717018339665995</v>
+        <v>0.03264488964538954</v>
       </c>
       <c r="T2">
-        <v>0.02717018339665996</v>
+        <v>0.03264488964538954</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2125036666666666</v>
+        <v>0.4149273333333334</v>
       </c>
       <c r="H3">
-        <v>0.6375109999999999</v>
+        <v>1.244782</v>
       </c>
       <c r="I3">
-        <v>0.1064749515943994</v>
+        <v>0.1353844755004719</v>
       </c>
       <c r="J3">
-        <v>0.1064749515943994</v>
+        <v>0.1353844755004719</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.245536666666667</v>
+        <v>1.465099666666666</v>
       </c>
       <c r="N3">
-        <v>6.736610000000001</v>
+        <v>4.395299</v>
       </c>
       <c r="O3">
-        <v>0.744820889891918</v>
+        <v>0.7588727250690147</v>
       </c>
       <c r="P3">
-        <v>0.744820889891918</v>
+        <v>0.7588727250690147</v>
       </c>
       <c r="Q3">
-        <v>0.4771847753011111</v>
+        <v>0.6079098977575556</v>
       </c>
       <c r="R3">
-        <v>4.29466297771</v>
+        <v>5.471189079818</v>
       </c>
       <c r="S3">
-        <v>0.07930476819773943</v>
+        <v>0.1027395858550824</v>
       </c>
       <c r="T3">
-        <v>0.07930476819773945</v>
+        <v>0.1027395858550824</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>3.579424</v>
       </c>
       <c r="I4">
-        <v>0.597823405613129</v>
+        <v>0.389303862711544</v>
       </c>
       <c r="J4">
-        <v>0.5978234056131291</v>
+        <v>0.389303862711544</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7693313333333333</v>
+        <v>0.4655266666666667</v>
       </c>
       <c r="N4">
-        <v>2.307994</v>
+        <v>1.39658</v>
       </c>
       <c r="O4">
-        <v>0.2551791101080821</v>
+        <v>0.2411272749309853</v>
       </c>
       <c r="P4">
-        <v>0.2551791101080821</v>
+        <v>0.2411272749309853</v>
       </c>
       <c r="Q4">
-        <v>0.9179210128284444</v>
+        <v>0.5554391077688889</v>
       </c>
       <c r="R4">
-        <v>8.261289115456</v>
+        <v>4.99895196992</v>
       </c>
       <c r="S4">
-        <v>0.1525520446461412</v>
+        <v>0.09387177953574105</v>
       </c>
       <c r="T4">
-        <v>0.1525520446461413</v>
+        <v>0.09387177953574104</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>3.579424</v>
       </c>
       <c r="I5">
-        <v>0.597823405613129</v>
+        <v>0.389303862711544</v>
       </c>
       <c r="J5">
-        <v>0.5978234056131291</v>
+        <v>0.389303862711544</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.245536666666667</v>
+        <v>1.465099666666666</v>
       </c>
       <c r="N5">
-        <v>6.736610000000001</v>
+        <v>4.395299</v>
       </c>
       <c r="O5">
-        <v>0.744820889891918</v>
+        <v>0.7588727250690147</v>
       </c>
       <c r="P5">
-        <v>0.744820889891918</v>
+        <v>0.7588727250690147</v>
       </c>
       <c r="Q5">
-        <v>2.679242612515556</v>
+        <v>1.748070969752889</v>
       </c>
       <c r="R5">
-        <v>24.11318351264</v>
+        <v>15.732638727776</v>
       </c>
       <c r="S5">
-        <v>0.4452713609669878</v>
+        <v>0.295432083175803</v>
       </c>
       <c r="T5">
-        <v>0.4452713609669878</v>
+        <v>0.295432083175803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4400006666666667</v>
+        <v>1.270157666666667</v>
       </c>
       <c r="H6">
-        <v>1.320002</v>
+        <v>3.810473</v>
       </c>
       <c r="I6">
-        <v>0.2204623121083564</v>
+        <v>0.4144331204288861</v>
       </c>
       <c r="J6">
-        <v>0.2204623121083564</v>
+        <v>0.4144331204288861</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7693313333333333</v>
+        <v>0.4655266666666667</v>
       </c>
       <c r="N6">
-        <v>2.307994</v>
+        <v>1.39658</v>
       </c>
       <c r="O6">
-        <v>0.2551791101080821</v>
+        <v>0.2411272749309853</v>
       </c>
       <c r="P6">
-        <v>0.2551791101080821</v>
+        <v>0.2411272749309853</v>
       </c>
       <c r="Q6">
-        <v>0.3385062995542222</v>
+        <v>0.5912922647044445</v>
       </c>
       <c r="R6">
-        <v>3.046556695987999</v>
+        <v>5.32163038234</v>
       </c>
       <c r="S6">
-        <v>0.05625737661618063</v>
+        <v>0.09993112897016218</v>
       </c>
       <c r="T6">
-        <v>0.05625737661618065</v>
+        <v>0.09993112897016217</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4400006666666667</v>
+        <v>1.270157666666667</v>
       </c>
       <c r="H7">
-        <v>1.320002</v>
+        <v>3.810473</v>
       </c>
       <c r="I7">
-        <v>0.2204623121083564</v>
+        <v>0.4144331204288861</v>
       </c>
       <c r="J7">
-        <v>0.2204623121083564</v>
+        <v>0.4144331204288861</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.245536666666667</v>
+        <v>1.465099666666666</v>
       </c>
       <c r="N7">
-        <v>6.736610000000001</v>
+        <v>4.395299</v>
       </c>
       <c r="O7">
-        <v>0.744820889891918</v>
+        <v>0.7588727250690147</v>
       </c>
       <c r="P7">
-        <v>0.744820889891918</v>
+        <v>0.7588727250690147</v>
       </c>
       <c r="Q7">
-        <v>0.9880376303577778</v>
+        <v>1.860907574047444</v>
       </c>
       <c r="R7">
-        <v>8.892338673219999</v>
+        <v>16.748168166427</v>
       </c>
       <c r="S7">
-        <v>0.1642049354921758</v>
+        <v>0.314501991458724</v>
       </c>
       <c r="T7">
-        <v>0.1642049354921758</v>
+        <v>0.314501991458724</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1501633333333333</v>
+        <v>0.186581</v>
       </c>
       <c r="H8">
-        <v>0.45049</v>
+        <v>0.559743</v>
       </c>
       <c r="I8">
-        <v>0.07523933068411523</v>
+        <v>0.06087854135909794</v>
       </c>
       <c r="J8">
-        <v>0.07523933068411524</v>
+        <v>0.06087854135909794</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7693313333333333</v>
+        <v>0.4655266666666667</v>
       </c>
       <c r="N8">
-        <v>2.307994</v>
+        <v>1.39658</v>
       </c>
       <c r="O8">
-        <v>0.2551791101080821</v>
+        <v>0.2411272749309853</v>
       </c>
       <c r="P8">
-        <v>0.2551791101080821</v>
+        <v>0.2411272749309853</v>
       </c>
       <c r="Q8">
-        <v>0.1155253574511111</v>
+        <v>0.08685843099333333</v>
       </c>
       <c r="R8">
-        <v>1.03972821706</v>
+        <v>0.7817258789400001</v>
       </c>
       <c r="S8">
-        <v>0.01919950544910024</v>
+        <v>0.01467947677969257</v>
       </c>
       <c r="T8">
-        <v>0.01919950544910025</v>
+        <v>0.01467947677969257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1501633333333333</v>
+        <v>0.186581</v>
       </c>
       <c r="H9">
-        <v>0.45049</v>
+        <v>0.559743</v>
       </c>
       <c r="I9">
-        <v>0.07523933068411523</v>
+        <v>0.06087854135909794</v>
       </c>
       <c r="J9">
-        <v>0.07523933068411524</v>
+        <v>0.06087854135909794</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.245536666666667</v>
+        <v>1.465099666666666</v>
       </c>
       <c r="N9">
-        <v>6.736610000000001</v>
+        <v>4.395299</v>
       </c>
       <c r="O9">
-        <v>0.744820889891918</v>
+        <v>0.7588727250690147</v>
       </c>
       <c r="P9">
-        <v>0.744820889891918</v>
+        <v>0.7588727250690147</v>
       </c>
       <c r="Q9">
-        <v>0.3371972709888889</v>
+        <v>0.2733597609063333</v>
       </c>
       <c r="R9">
-        <v>3.0347754389</v>
+        <v>2.460237848157</v>
       </c>
       <c r="S9">
-        <v>0.056039825235015</v>
+        <v>0.04619906457940537</v>
       </c>
       <c r="T9">
-        <v>0.056039825235015</v>
+        <v>0.04619906457940537</v>
       </c>
     </row>
   </sheetData>
